--- a/medicine/Enfance/Isaac_Pougatch/Isaac_Pougatch.xlsx
+++ b/medicine/Enfance/Isaac_Pougatch/Isaac_Pougatch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Isaac Pougatch (1897, Kiev, Empire russe – 1988, Paris) est un éducateur juif français très actif dans les mouvements de jeunesse juive particulièrement durant la Seconde Guerre mondiale et après la Libération.
 </t>
@@ -511,7 +523,9 @@
           <t>Éléments biographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Isaac Pougatch est né en 1897, à Kiev, actuellement en Ukraine.
 Il vit de 1903 à 1904 dans un shtetl de la Russie blanche. En 1906, après le pogrome de Kiev, ses parents s’installent à Genève.
@@ -551,7 +565,9 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est l'époux de Juliette Pary (son nom de plume ; son nom étant Juliette Garfinkel), la sœur de Nina Gourfinkel.
 Juliette meurt à Vevey, en octobre 1950, à l'âge de 47 ans.
@@ -583,7 +599,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Charry: Vie d'une communauté de jeunesse.  Édition de la Baconnière : Neuchâtel, Suisse, 1945.
 Les Éducateurs à l'école : Quatre années d'expérience au Centre de Plessis Trévise. Édition de la Baconnière : Neuchâtel, Suisse, 1951.
@@ -592,7 +610,7 @@
 Mendele, un classique juif. Édition Albin Michel. Collection "Présence du Judaïsme : Paris, 1973.
 (he) Les Juifs de France. Tel Aviv-Jaffa, 1976.
 A l'écoute de son peuple. Un éducateur raconte. Édition de la Baconnière : Neuchâtel, Suisse, et Éditions Albin Michel, Paris, 1980.
-Figures juives de Théodore Herzl à Ida Nudel. Ramsay : Paris, 1984[1].</t>
+Figures juives de Théodore Herzl à Ida Nudel. Ramsay : Paris, 1984.</t>
         </is>
       </c>
     </row>
